--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_55.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_55.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Days Inn New Orleans Pontchartrain</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>42262</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70126</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70126</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_55.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_55.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,657 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r608412359-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>10623247</t>
+  </si>
+  <si>
+    <t>608412359</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My best friend’s bday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made a VERY LONG review on this place and it never was published. That should say in itself how bad our stay was. I had pictures and all but nothing was published. I DO NOT recommend this place for anyone. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r606887089-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>606887089</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Bedbugs!!!!</t>
+  </si>
+  <si>
+    <t>My entire family is suffering from horrible bed bugs because of this hotel... please do not stay here!!! Obvious illegal activity going on in and around on top of bed bug infestation.  Do not fall prey to cheap prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r584001136-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584001136</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Sorry but, inconvenient</t>
+  </si>
+  <si>
+    <t>As being travel agent, it makes to pay attention for every details of your experience. I am a very tolerant person when it comes to accommodation of my own, however, I am sorry this time that I cannot be. We live in world of communication and Days Inn was unable to provide wi-fi service for whole weekend during my stay which was very frustrating and disappointing for me. Paying more than $500 for a basic hotel which is quite far from downtown New Orleans for 4 nights, at least you expect a simple wi-fi, but no. I also need to mention that front desk team did not seem so professional to me and were quite unsuccessful for handling this issue. The only good thing I can say is, the hotel is close to supermarket where you can buy a stuff. Housekeeping was polite and helpful. Rooms are large, beds are comfortable. I am sorry but I cannot recommend this property before it sets up what it takes for professional hospitality service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>As being travel agent, it makes to pay attention for every details of your experience. I am a very tolerant person when it comes to accommodation of my own, however, I am sorry this time that I cannot be. We live in world of communication and Days Inn was unable to provide wi-fi service for whole weekend during my stay which was very frustrating and disappointing for me. Paying more than $500 for a basic hotel which is quite far from downtown New Orleans for 4 nights, at least you expect a simple wi-fi, but no. I also need to mention that front desk team did not seem so professional to me and were quite unsuccessful for handling this issue. The only good thing I can say is, the hotel is close to supermarket where you can buy a stuff. Housekeeping was polite and helpful. Rooms are large, beds are comfortable. I am sorry but I cannot recommend this property before it sets up what it takes for professional hospitality service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r579552624-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>579552624</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Would not stay here again</t>
+  </si>
+  <si>
+    <t>Only ended up staying here due to my original hotel booking getting cancelled. The customer service was good as the guy on reception offered me assistance when every other budget hotel seemed to be booked so I was grateful for that. The location was awful, we found cockroaches (guy on desk did offer for us to stay in another room) way too expensive for what you get. Cost around $12 from the French Quarter although I would avoid this hotel I would definitely visit NOLA in the future.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r574809492-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574809492</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Urine on toilet , blood on sheets</t>
+  </si>
+  <si>
+    <t>Disgusting . Do not stay here. Blood on sheets, dirt on sheets and urine on toilet . We had a kitchenette room. We showed the manager the room and they said they would change us to a room with no kitchen , but not refund the price difference because it was “the day of”. It’s not our fault the room so so nasty. Take a look at photos of the view from the window. Nasty part of town, do not stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Tejas D, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Disgusting . Do not stay here. Blood on sheets, dirt on sheets and urine on toilet . We had a kitchenette room. We showed the manager the room and they said they would change us to a room with no kitchen , but not refund the price difference because it was “the day of”. It’s not our fault the room so so nasty. Take a look at photos of the view from the window. Nasty part of town, do not stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r573131585-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573131585</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>This isn’t the ritz, it isn’t downtown or even a great area of town. But it’s clean and comfortable and the staff is nice and very helpful. They have a free continental breakfast. Toast, muffins and bagels, butter and jelly, oatmeal, cereal, bananas and apples. Coffee, orange drink and milk. They could add a lot by having cream cheese and peanut butter. But it was convenient and time saving to be able to grab a bite before setting out for the day. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tejas D, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>This isn’t the ritz, it isn’t downtown or even a great area of town. But it’s clean and comfortable and the staff is nice and very helpful. They have a free continental breakfast. Toast, muffins and bagels, butter and jelly, oatmeal, cereal, bananas and apples. Coffee, orange drink and milk. They could add a lot by having cream cheese and peanut butter. But it was convenient and time saving to be able to grab a bite before setting out for the day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r568655064-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>568655064</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Nice surprise</t>
+  </si>
+  <si>
+    <t>We were a little hesitant about the area (unkept homes and some businesses), but this place was a pleasant surprise. Management was very helpful, room was spacious, clean and updated.Management was proactive about keeping noise under control.Location is a short ride to the quarter....MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>We were a little hesitant about the area (unkept homes and some businesses), but this place was a pleasant surprise. Management was very helpful, room was spacious, clean and updated.Management was proactive about keeping noise under control.Location is a short ride to the quarter....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r568053611-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>568053611</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Spacious and clean room!</t>
+  </si>
+  <si>
+    <t>Had a king Jacuzzi suite. It was spacious and very clean. Loved that the floors were not carpeted, as it added to the feel of cleanliness and the bed was very comfortable. Not too far from the French Quarter either! Will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Had a king Jacuzzi suite. It was spacious and very clean. Loved that the floors were not carpeted, as it added to the feel of cleanliness and the bed was very comfortable. Not too far from the French Quarter either! Will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r551251134-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551251134</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Hoped for the best and it was acceptable</t>
+  </si>
+  <si>
+    <t>I booked this hotel a year before my stay....all I can guess is that the the prices, probably due to the New Years holiday, were high everywhere else.  This is not typically the type of place that I would choose to stay (I am more of a Hampton Inn or Hyatt Place kind of person).  The location, while convenient for access to the highway, is in a bit of a seedy area.  it looked to me like they are doing work around the property to fix up the parking lot and make the exterior look a bit more appealing.  The room was very basic, but it had everything you'd need and it was clean.  we only stayed 2 nights, so it was a good place for a very reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I booked this hotel a year before my stay....all I can guess is that the the prices, probably due to the New Years holiday, were high everywhere else.  This is not typically the type of place that I would choose to stay (I am more of a Hampton Inn or Hyatt Place kind of person).  The location, while convenient for access to the highway, is in a bit of a seedy area.  it looked to me like they are doing work around the property to fix up the parking lot and make the exterior look a bit more appealing.  The room was very basic, but it had everything you'd need and it was clean.  we only stayed 2 nights, so it was a good place for a very reasonable rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r549140666-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>549140666</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Big room</t>
+  </si>
+  <si>
+    <t>We had a pretty big room, which was very nice. Also, the roombwas clean and had vinyl flooring in stead of carpet, feels cleaner to me. It seems to be in a bit of a shady neighbourhood though, some people walking around outside that didn't make me feel safe. Breakfast was not as extensive as one of the other Days Inn we stayed at. Just bread and cereal, no eggs, yoghurt or pancakes/waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We had a pretty big room, which was very nice. Also, the roombwas clean and had vinyl flooring in stead of carpet, feels cleaner to me. It seems to be in a bit of a shady neighbourhood though, some people walking around outside that didn't make me feel safe. Breakfast was not as extensive as one of the other Days Inn we stayed at. Just bread and cereal, no eggs, yoghurt or pancakes/waffles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r548983897-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>548983897</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Hotel grief!!</t>
+  </si>
+  <si>
+    <t>The only plus point to this hotel, is it’s proximity to the French quarter as only a 10 minute drive. On our arrival, we were kept waiting more than 10 minutes as there was nobody at reception and no way of alerting them. When someone did appear, there was no apology. Worse still, they could not find our booking confirmation, even though we had a print out of the reservation. Instead they made up a bogus booking with a different address and wanted more money than our own booking stated. Our room had not been serviced properly, used towel on top of shower rail. On checking out, and in trying to re-coup the extra money we had been forced to pay, the staff were extremely rude and argumentative. No empathy whatsoever and in trying to refund us our money, only made a bad situation much worse by charging us again and double what we had paid, a problem which we could only resolve once we had got home and after numerous e-mails back and forth to Wyndham’s head office and even then not to our satisfaction. Stay here at your peril.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>The only plus point to this hotel, is it’s proximity to the French quarter as only a 10 minute drive. On our arrival, we were kept waiting more than 10 minutes as there was nobody at reception and no way of alerting them. When someone did appear, there was no apology. Worse still, they could not find our booking confirmation, even though we had a print out of the reservation. Instead they made up a bogus booking with a different address and wanted more money than our own booking stated. Our room had not been serviced properly, used towel on top of shower rail. On checking out, and in trying to re-coup the extra money we had been forced to pay, the staff were extremely rude and argumentative. No empathy whatsoever and in trying to refund us our money, only made a bad situation much worse by charging us again and double what we had paid, a problem which we could only resolve once we had got home and after numerous e-mails back and forth to Wyndham’s head office and even then not to our satisfaction. Stay here at your peril.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r540201214-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540201214</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Nice place for the $$$</t>
+  </si>
+  <si>
+    <t>This place is only 2 years old. Rooms have hardwoods and full size refrigerators...sink... stove and microwave.  Location is about a $10 Uber to the Quarter. This place was about a quarter of the cost of staying right in the Quarter. We thought the location looked a little "seedy" when we first arrived but it really isn't.  In general...if you haven't BEEN to New Orleans before pretty much ALL of NO looks a little seedy.... but it's not. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This place is only 2 years old. Rooms have hardwoods and full size refrigerators...sink... stove and microwave.  Location is about a $10 Uber to the Quarter. This place was about a quarter of the cost of staying right in the Quarter. We thought the location looked a little "seedy" when we first arrived but it really isn't.  In general...if you haven't BEEN to New Orleans before pretty much ALL of NO looks a little seedy.... but it's not. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r539194125-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>539194125</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to an event I was attending iat South Shore Harbor.  This in not an upscale hotel but if you are looking for a decent room that's clean, has a place to take a shower, fridge and microwave, WiFi, and nice size TV screen then this place will work.  We had a king sized bed in a small but adequate room.  Something to note:  It is a two story  hotel with no elevator.  If you need an elevator make sure you get a room on the first floor.  There are only two short flights of stairs so if was not an issue, but it may be for someone with a wheelchair, heavy bags or other issues.  There is also a small area to the left of the entryway with picnic tables where people hang out and smoke.  There were people hanging out in the parking lot at various times.  If this scares you, you may want to rethink your choice.  However, there were no problems when we stayed here.  It was a short drive into the heart of New Orleans as it was close to one of the major freeways.  WalMart and various other shops and restaurants were nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to an event I was attending iat South Shore Harbor.  This in not an upscale hotel but if you are looking for a decent room that's clean, has a place to take a shower, fridge and microwave, WiFi, and nice size TV screen then this place will work.  We had a king sized bed in a small but adequate room.  Something to note:  It is a two story  hotel with no elevator.  If you need an elevator make sure you get a room on the first floor.  There are only two short flights of stairs so if was not an issue, but it may be for someone with a wheelchair, heavy bags or other issues.  There is also a small area to the left of the entryway with picnic tables where people hang out and smoke.  There were people hanging out in the parking lot at various times.  If this scares you, you may want to rethink your choice.  However, there were no problems when we stayed here.  It was a short drive into the heart of New Orleans as it was close to one of the major freeways.  WalMart and various other shops and restaurants were nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r538471981-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>538471981</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Good location and friendly</t>
+  </si>
+  <si>
+    <t>we arrived real early and was checked in OK with helpful staff and the room is big and everything works .  The location is very convenient as its next to I-10 to go to French Quarters .  There are shopping and eateries nearby and parking is ample .  I would stay here again .  Only issue is the room has kitchenette but there were no utensils and the hotel provides none . Its the only set back . It also has a gymMoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>we arrived real early and was checked in OK with helpful staff and the room is big and everything works .  The location is very convenient as its next to I-10 to go to French Quarters .  There are shopping and eateries nearby and parking is ample .  I would stay here again .  Only issue is the room has kitchenette but there were no utensils and the hotel provides none . Its the only set back . It also has a gymMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r537671458-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>537671458</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>The room was very comfortable and clean and the prices was fair enough, but the hotel has no elevators. I was alone with a large and heavy luggage and had to climb the stairs. Also the location was not very close to the places I wanted to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The room was very comfortable and clean and the prices was fair enough, but the hotel has no elevators. I was alone with a large and heavy luggage and had to climb the stairs. Also the location was not very close to the places I wanted to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r529234679-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>529234679</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Evacuee</t>
+  </si>
+  <si>
+    <t>Made reservations here for 4 nights. ordered 2 rooms 1 King and 1 room with 2 queen beds. specified we had 3 dogs. when we checked in we got 1 room 2 queen beds the other room had 1 queen bed. Manager argued the room was a king bed. he finally changed room to a king bed. when taking dogs outside he told us no pets allowed. I explained reservation was made with known pets, He let us stay for the night, we checked out next Am and went else whereMoreShow less</t>
+  </si>
+  <si>
+    <t>Made reservations here for 4 nights. ordered 2 rooms 1 King and 1 room with 2 queen beds. specified we had 3 dogs. when we checked in we got 1 room 2 queen beds the other room had 1 queen bed. Manager argued the room was a king bed. he finally changed room to a king bed. when taking dogs outside he told us no pets allowed. I explained reservation was made with known pets, He let us stay for the night, we checked out next Am and went else whereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r520002483-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>520002483</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Short get away!</t>
+  </si>
+  <si>
+    <t>This hotel when we first pulled up seemed not up to par, however when we got on the inside it was completely remodeled.  They do not have carpet any more and they have vinyl floors that look like hardwood.  The room was comfortable and very spacious.  They also have a refrigerator and microwave inside the room which was a plus.  The only downfall for the motel was the stairs, the do not have an elevator but other than that it was close to shopping, close to interstate 10, and close to downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This hotel when we first pulled up seemed not up to par, however when we got on the inside it was completely remodeled.  They do not have carpet any more and they have vinyl floors that look like hardwood.  The room was comfortable and very spacious.  They also have a refrigerator and microwave inside the room which was a plus.  The only downfall for the motel was the stairs, the do not have an elevator but other than that it was close to shopping, close to interstate 10, and close to downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r503521008-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>503521008</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Nice Service</t>
+  </si>
+  <si>
+    <t>Very nice service, the staff took time to answer questions and was very hard-working. The rooms are very nice for this price and the area is perfect for visiting New Orleans, Uber costing 10.- USDThe breakfast is like everywhere typical American ....MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Very nice service, the staff took time to answer questions and was very hard-working. The rooms are very nice for this price and the area is perfect for visiting New Orleans, Uber costing 10.- USDThe breakfast is like everywhere typical American ....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r479622426-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479622426</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>worth avoiding...</t>
+  </si>
+  <si>
+    <t>The only positive thing about the location is that its just off the highway and is about less than $10 uber drive to the French quarter.  Other than that it can be called a 'dump' place.  The neighbourhood is bit shady.  The hotel though non smoking has strong cigarette odour on the passage.Breakfast is few slices of bread.  The disinterest of management is seen by the fact that nobody checks to see if anything need refilling.  You wont get a coffee if you come after 9:30 am.the room had a kitchenette.  If you have to use it bring your own pots, pans cutlery and crockery since not one single item is providedAt best its good as a one nighter...MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>The only positive thing about the location is that its just off the highway and is about less than $10 uber drive to the French quarter.  Other than that it can be called a 'dump' place.  The neighbourhood is bit shady.  The hotel though non smoking has strong cigarette odour on the passage.Breakfast is few slices of bread.  The disinterest of management is seen by the fact that nobody checks to see if anything need refilling.  You wont get a coffee if you come after 9:30 am.the room had a kitchenette.  If you have to use it bring your own pots, pans cutlery and crockery since not one single item is providedAt best its good as a one nighter...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r448571965-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>448571965</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel! </t>
+  </si>
+  <si>
+    <t>This hotel is not downtown, but for the price it's in a good location. About a 10 minute drive to Bourbon street and other downtown locations. About 10-12 dollar uber ride. The room was clean and had everything we needed. The surrounding area may not be the best, but wasn't bad and we had no issues. We stayed for three nights and enjoyed the stay. Definitely recommend this hotel if you are looking for something affordable while visiting New Orleans! MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is not downtown, but for the price it's in a good location. About a 10 minute drive to Bourbon street and other downtown locations. About 10-12 dollar uber ride. The room was clean and had everything we needed. The surrounding area may not be the best, but wasn't bad and we had no issues. We stayed for three nights and enjoyed the stay. Definitely recommend this hotel if you are looking for something affordable while visiting New Orleans! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r444851052-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>444851052</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet place </t>
+  </si>
+  <si>
+    <t>The rooms are clean and neat the staff was friendly . Don't know much about the location but I loved the stay it was peaceful calm and rooms wer comfortable . They have the business centre it was very helpful for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The rooms are clean and neat the staff was friendly . Don't know much about the location but I loved the stay it was peaceful calm and rooms wer comfortable . They have the business centre it was very helpful for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r433972546-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433972546</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Stay was welcoming and comfortable</t>
+  </si>
+  <si>
+    <t>We had 2 rooms one with a king and the other 2 queen and each room for 2 nights. Both rooms were nicely presented and very clean. All staff were very accommodating and very friendly and helpful. House keeping cleaned both rooms for our stay in between and we all felt very comfortable. The only downside was the breakfast menu. Extremely limited and very little to eat and choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Days Inn N, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>We had 2 rooms one with a king and the other 2 queen and each room for 2 nights. Both rooms were nicely presented and very clean. All staff were very accommodating and very friendly and helpful. House keeping cleaned both rooms for our stay in between and we all felt very comfortable. The only downside was the breakfast menu. Extremely limited and very little to eat and choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r427974348-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>427974348</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Not a Safe area and other issues</t>
+  </si>
+  <si>
+    <t>Office made our reservations for two rooms, the office talked with twice but when we arrived, there were no record of our reservations.  The office had also sent a fax for credit card authorization (which our office had fax verification) the hotel said they had not received the fax..we were finally given two rooms at a big increase in rate.  The office was quoted $62.99 but the rooms cost $80.79 and $92.19.  I had to call office to get another credit card.  If it hadn't been late, we would have left.  Upon checking out the next morning, they refused to give us copies of our bill, said we should have gotten them last night...the neighbor hood was not a great place and we were glad our vehicles and equipment were there when we left.  Would not recommend to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Days Inn N, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Office made our reservations for two rooms, the office talked with twice but when we arrived, there were no record of our reservations.  The office had also sent a fax for credit card authorization (which our office had fax verification) the hotel said they had not received the fax..we were finally given two rooms at a big increase in rate.  The office was quoted $62.99 but the rooms cost $80.79 and $92.19.  I had to call office to get another credit card.  If it hadn't been late, we would have left.  Upon checking out the next morning, they refused to give us copies of our bill, said we should have gotten them last night...the neighbor hood was not a great place and we were glad our vehicles and equipment were there when we left.  Would not recommend to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r425347313-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>425347313</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma </t>
+  </si>
+  <si>
+    <t>1st day at check in I was told I already checked in. I assured them I did not. They actually gave my room to someone else. They did find me another room.2nd day was asked if I had a pet. NO and there better not be 1 in my room. No room service 3rd or 4th day. Room was clean, and bed was comfortable. Convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tejas D, Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded October 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2016</t>
+  </si>
+  <si>
+    <t>1st day at check in I was told I already checked in. I assured them I did not. They actually gave my room to someone else. They did find me another room.2nd day was asked if I had a pet. NO and there better not be 1 in my room. No room service 3rd or 4th day. Room was clean, and bed was comfortable. Convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r424176321-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424176321</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>BAD area</t>
+  </si>
+  <si>
+    <t>Not very clean, room stinks, very shady neighborhood. Cheap, but still not worth the price. Book somewhere else, unless you are very adventurous. Don't be fooled by the good reviews.....this place is awful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tejas D, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Not very clean, room stinks, very shady neighborhood. Cheap, but still not worth the price. Book somewhere else, unless you are very adventurous. Don't be fooled by the good reviews.....this place is awful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r419990203-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>419990203</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not a great neighbourhood </t>
+  </si>
+  <si>
+    <t>We chose this place based on the two perfect reviews..I should have guessed that maybe a family member dos that as soon as I saw it.  While I do understand that it's just reopened 6 months ago after Katrina damage, it's time to get the story straight.  The staff is friendly and helpful, but it's a bit disconcerting when they're behind locked doors.  The room, while nice, had an awful aroma-we did have air freshener, so that helped.  The air conditioning was running, but never really cooled down the room.  And someone should really re-think the drapes that do NOT cover the window all the way.I truly do hope that they can get their act together, but I could not recommend it...sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We chose this place based on the two perfect reviews..I should have guessed that maybe a family member dos that as soon as I saw it.  While I do understand that it's just reopened 6 months ago after Katrina damage, it's time to get the story straight.  The staff is friendly and helpful, but it's a bit disconcerting when they're behind locked doors.  The room, while nice, had an awful aroma-we did have air freshener, so that helped.  The air conditioning was running, but never really cooled down the room.  And someone should really re-think the drapes that do NOT cover the window all the way.I truly do hope that they can get their act together, but I could not recommend it...sorry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r414552356-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>414552356</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>great acomidations.. helpful sn supportive staff</t>
+  </si>
+  <si>
+    <t>the room is state of the ART.. Every thing is where it needs to be,, the bed is soft an i love the lighting. it also gave me the option of having light where i needed it wthout lighting the whole room.. i also like that the plugs in the wall were in easy reach an u didnt have to bend over behind nor move furniture to get to them.. the staff an managment went out of there way to make sure mr stay was a wonderful  experience on my next visit i will definatley return here.. also the locatin is Excellent.. many stores to get or dine in to get what i needed a. they were in walking distance...MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inn N, General Manager at Days Inn by Wyndham New Orleans Pontchartrain, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>the room is state of the ART.. Every thing is where it needs to be,, the bed is soft an i love the lighting. it also gave me the option of having light where i needed it wthout lighting the whole room.. i also like that the plugs in the wall were in easy reach an u didnt have to bend over behind nor move furniture to get to them.. the staff an managment went out of there way to make sure mr stay was a wonderful  experience on my next visit i will definatley return here.. also the locatin is Excellent.. many stores to get or dine in to get what i needed a. they were in walking distance...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d10623247-r411166445-Days_Inn_by_Wyndham_New_Orleans_Pontchartrain-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>411166445</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>The bes hotel in New Orleans y'all</t>
+  </si>
+  <si>
+    <t>This is the most amazing hotel I have ever been to it actually feels like home. Very comfortable, very clean, the hotel employees and managers are very very nice people, if you come to New Orleans in staying for a while are even a day I suggest you come here in I promise you won't regret it, I even have a stove in refrigerator in my room, in they even have a laundry room. I'm enjoying my stay, in you even get free breakfast in the morning for very reasonable priceMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This is the most amazing hotel I have ever been to it actually feels like home. Very comfortable, very clean, the hotel employees and managers are very very nice people, if you come to New Orleans in staying for a while are even a day I suggest you come here in I promise you won't regret it, I even have a stove in refrigerator in my room, in they even have a laundry room. I'm enjoying my stay, in you even get free breakfast in the morning for very reasonable priceMore</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1209,1768 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>126</v>
+      </c>
+      <c r="X14" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>126</v>
+      </c>
+      <c r="X16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>126</v>
+      </c>
+      <c r="X18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>201</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>209</v>
+      </c>
+      <c r="X25" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>202</v>
+      </c>
+      <c r="X27" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>232</v>
+      </c>
+      <c r="X28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42262</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>232</v>
+      </c>
+      <c r="X29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +2993,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +3025,31 @@
         <v>42262</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="E2" t="n">
         <v>70126</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
